--- a/Assets/Spreadsheets/ItemDrops.xlsx
+++ b/Assets/Spreadsheets/ItemDrops.xlsx
@@ -10,10 +10,59 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="L1">
+      <text>
+        <t xml:space="preserve">기획자 검증용 컬럼 (실제 사용 X)
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>DropItem1</t>
+  </si>
+  <si>
+    <t>Probability1</t>
+  </si>
+  <si>
+    <t>DropItem2</t>
+  </si>
+  <si>
+    <t>Probability2</t>
+  </si>
+  <si>
+    <t>DropItem3</t>
+  </si>
+  <si>
+    <t>Probability3</t>
+  </si>
+  <si>
+    <t>DropItem4</t>
+  </si>
+  <si>
+    <t>Probability4</t>
+  </si>
+  <si>
+    <t>DropItem5</t>
+  </si>
+  <si>
+    <t>Probability5</t>
+  </si>
+  <si>
+    <t>Validation</t>
   </si>
 </sst>
 </file>
@@ -47,18 +96,30 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE06666"/>
+          <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -274,8 +335,710 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>100001.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="2">
+        <f t="shared" ref="L2:L18" si="1">C2+E2+G2+I2+K2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>100002.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>100003.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>100004.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>100005.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>100006.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>100007.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>100008.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>100009.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>100010.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H11" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>100011.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H12" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>100012.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H13" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>100013.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H14" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>100014.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J15" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>100015.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H16" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J16" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>100016.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H17" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J17" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>100017.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H18" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J18" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <conditionalFormatting sqref="L2:L18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>